--- a/biology/Botanique/Hillia/Hillia.xlsx
+++ b/biology/Botanique/Hillia/Hillia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hillia est un genre de plantes de la famille des Rubiacées. Ce genre compte une vingtaine d'espèces originaires d'Amérique tropicale et des Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ravnia Oerst.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hillia macrophylla Standley
 Hillia parasitica  Jacquin
@@ -574,13 +590,15 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (2 août 2013)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (2 août 2013) :
 Hillia acronyctina
 Hillia iris
 Hillia maida
-Selon World Checklist of Selected Plant Families (WCSP)  (2 août 2013)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (2 août 2013) :
 Hillia allenii C.M.Taylor (1989)
 Hillia bonoi Steyerm. (1987)
 Hillia costanensis Steyerm. (1972)
@@ -607,7 +625,7 @@
 variété Hillia triflora var. triflora
 Hillia ulei K.Krause (1908)
 Hillia wurdackii Steyerm. (1972)
-Selon Tropicos                                           (2 août 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 août 2013) (Attention liste brute contenant possiblement des synonymes) :
 Hillia allenii C.M. Taylor
 Hillia boliviana Britton
 Hillia bonoi Steyerm.
